--- a/biology/Médecine/Henry_Bashford/Henry_Bashford.xlsx
+++ b/biology/Médecine/Henry_Bashford/Henry_Bashford.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sir Henry Howarth Bashford (1880 – 21 août 1961) est un médecin britannique réputé avant de devenir un médecin de George VI. Il est particulièrement connu pour être l'auteur d'un roman satirique Augustus Carp, Esq., By Himself: Being the Autobiography of a Really Good Man, qui est publié anonymement en 1924. C'est le romancier Anthony Burgess, grand amateur de ce roman, qui révèle son identité[1]. Il écrit aussi un peu de poésie. Il publie sous le pseudonyme de Peter Harding.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sir Henry Howarth Bashford (1880 – 21 août 1961) est un médecin britannique réputé avant de devenir un médecin de George VI. Il est particulièrement connu pour être l'auteur d'un roman satirique Augustus Carp, Esq., By Himself: Being the Autobiography of a Really Good Man, qui est publié anonymement en 1924. C'est le romancier Anthony Burgess, grand amateur de ce roman, qui révèle son identité. Il écrit aussi un peu de poésie. Il publie sous le pseudonyme de Peter Harding.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>1903 : Tommy Wideawake ;
 1904 : The Manitoban: A Romance ;
